--- a/问题2/分析结果/附件2/条纹间隔_附件2.xlsx
+++ b/问题2/分析结果/附件2/条纹间隔_附件2.xlsx
@@ -447,935 +447,935 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>24.93012708630885</v>
+        <v>24.90019999840639</v>
       </c>
       <c r="B2" t="n">
-        <v>5.653301069687597</v>
+        <v>5.641271992708823</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>19.27682601662125</v>
+        <v>19.25892800569756</v>
       </c>
       <c r="B3" t="n">
-        <v>3.657951543953498</v>
+        <v>3.6518054768318</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>15.61887447266775</v>
+        <v>15.60712252886576</v>
       </c>
       <c r="B4" t="n">
-        <v>1.363294446617104</v>
+        <v>1.361335115047433</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14.25558002605065</v>
+        <v>14.24578741381833</v>
       </c>
       <c r="B5" t="n">
-        <v>2.217351427312495</v>
+        <v>2.214542752683148</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12.03822859873815</v>
+        <v>12.03124466113518</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2127634765876021</v>
+        <v>0.2125160655913376</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11.82546512215055</v>
+        <v>11.81872859554384</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2378305650896184</v>
+        <v>0.2375623975862755</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11.58763455706093</v>
+        <v>11.58116619795757</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1972618822916097</v>
+        <v>0.1970461801892345</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11.39037267476932</v>
+        <v>11.38412001776833</v>
       </c>
       <c r="B9" t="n">
-        <v>1.267451049769107</v>
+        <v>1.266136232444429</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10.12292162500021</v>
+        <v>10.1179837853239</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2833267014440288</v>
+        <v>0.2830532592731405</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9.839594923556186</v>
+        <v>9.834930526050764</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6981836907728916</v>
+        <v>0.6975453715604232</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9.141411232783295</v>
+        <v>9.137385154490341</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3450290088643477</v>
+        <v>0.3447308895694263</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8.796382223918947</v>
+        <v>8.792654264920914</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6077287497189374</v>
+        <v>0.6072315205778605</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8.188653474200009</v>
+        <v>8.185422744343054</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4172508370522383</v>
+        <v>0.4169300416766744</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7.771402637147771</v>
+        <v>7.768492702666379</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1147513807678671</v>
+        <v>0.1146660955158687</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7.656651256379904</v>
+        <v>7.653826607150511</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5581344914579338</v>
+        <v>0.5577377584412542</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7.09851676492197</v>
+        <v>7.096088848709257</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2552762441787397</v>
+        <v>0.2551047868339245</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6.843240520743231</v>
+        <v>6.840984061875332</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1110517043899364</v>
+        <v>0.110983604235301</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.732188816353294</v>
+        <v>6.730000457640031</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1032760177124858</v>
+        <v>0.1032050102485043</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6.628912798640808</v>
+        <v>6.626795447391527</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06295479582138608</v>
+        <v>0.06291477611657825</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6.565958002819422</v>
+        <v>6.563880671274949</v>
       </c>
       <c r="B21" t="n">
-        <v>0.09625497512779901</v>
+        <v>0.09619452479996671</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.469703027691623</v>
+        <v>6.467686146474982</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2465210525158961</v>
+        <v>0.2463703008457365</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6.223181975175727</v>
+        <v>6.221315845629245</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1064427843713878</v>
+        <v>0.1063795021165808</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6.116739190804339</v>
+        <v>6.114936343512665</v>
       </c>
       <c r="B24" t="n">
-        <v>0.08186364502528232</v>
+        <v>0.08181571790218811</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6.034875545779057</v>
+        <v>6.033120625610477</v>
       </c>
       <c r="B25" t="n">
-        <v>0.07970133311263972</v>
+        <v>0.07965883641660465</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5.955174212666417</v>
+        <v>5.953461789193872</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1008497109718824</v>
+        <v>0.1007922110191792</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5.854324501694535</v>
+        <v>5.852669578174693</v>
       </c>
       <c r="B27" t="n">
-        <v>0.04915639273385164</v>
+        <v>0.04912535371681681</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5.805168108960683</v>
+        <v>5.803544224457876</v>
       </c>
       <c r="B28" t="n">
-        <v>0.08327391021755481</v>
+        <v>0.08322766213931665</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5.721894198743128</v>
+        <v>5.720316562318559</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3161439941354836</v>
+        <v>0.3159744977301866</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5.405750204607645</v>
+        <v>5.404342064588373</v>
       </c>
       <c r="B30" t="n">
-        <v>0.04886371274689871</v>
+        <v>0.04883837411077963</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5.356886491860746</v>
+        <v>5.355503690477593</v>
       </c>
       <c r="B31" t="n">
-        <v>0.2505678310234529</v>
+        <v>0.2504415108202442</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5.106318660837293</v>
+        <v>5.105062179657349</v>
       </c>
       <c r="B32" t="n">
-        <v>0.03867319534111768</v>
+        <v>0.03865680440390218</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5.067645465496176</v>
+        <v>5.066405375253447</v>
       </c>
       <c r="B33" t="n">
-        <v>0.03931332806783594</v>
+        <v>0.03929163730783714</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5.02833213742834</v>
+        <v>5.027113737945609</v>
       </c>
       <c r="B34" t="n">
-        <v>0.2611835120356458</v>
+        <v>0.2610602399483053</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4.767148625392694</v>
+        <v>4.766053497997304</v>
       </c>
       <c r="B35" t="n">
-        <v>0.03588443160011234</v>
+        <v>0.03586800850351857</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4.731264193792581</v>
+        <v>4.730185489493786</v>
       </c>
       <c r="B36" t="n">
-        <v>0.03959593977815601</v>
+        <v>0.03957796200682573</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4.691668254014425</v>
+        <v>4.69060752748696</v>
       </c>
       <c r="B37" t="n">
-        <v>0.139020525148271</v>
+        <v>0.1389586016305895</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4.552647728866154</v>
+        <v>4.55164892585637</v>
       </c>
       <c r="B38" t="n">
-        <v>0.06014952698855947</v>
+        <v>0.06012331180867481</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4.492498201877595</v>
+        <v>4.491525614047696</v>
       </c>
       <c r="B39" t="n">
-        <v>0.06426110520696504</v>
+        <v>0.06423348316100252</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4.42823709667063</v>
+        <v>4.427292130886693</v>
       </c>
       <c r="B40" t="n">
-        <v>0.05692757473452392</v>
+        <v>0.05690343725705915</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4.371309521936106</v>
+        <v>4.370388693629634</v>
       </c>
       <c r="B41" t="n">
-        <v>0.02928098699297976</v>
+        <v>0.02926869335180182</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4.342028534943126</v>
+        <v>4.341120000277832</v>
       </c>
       <c r="B42" t="n">
-        <v>0.03426836345980888</v>
+        <v>0.03425408076626457</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4.307760171483317</v>
+        <v>4.306865919511567</v>
       </c>
       <c r="B43" t="n">
-        <v>0.03372986347959728</v>
+        <v>0.03371591570846366</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4.27403030800372</v>
+        <v>4.273150003803104</v>
       </c>
       <c r="B44" t="n">
-        <v>0.04444861363329355</v>
+        <v>0.04443040089678973</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4.229581694370427</v>
+        <v>4.228719602906314</v>
       </c>
       <c r="B45" t="n">
-        <v>0.04353362514323766</v>
+        <v>0.04351597182364397</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4.186048069227189</v>
+        <v>4.18520363108267</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1150250007749722</v>
+        <v>0.1149792355415196</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4.071023068452217</v>
+        <v>4.070224395541151</v>
       </c>
       <c r="B47" t="n">
-        <v>0.03171086637673692</v>
+        <v>0.03169847365674183</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4.03931220207548</v>
+        <v>4.038525921884409</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0327703204912293</v>
+        <v>0.03275761552324852</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4.00654188158425</v>
+        <v>4.00576830636116</v>
       </c>
       <c r="B49" t="n">
-        <v>0.03148141097684132</v>
+        <v>0.031469303155093</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3.975060470607409</v>
+        <v>3.974299003206067</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1016962407387356</v>
+        <v>0.1016577805667618</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3.873364229868673</v>
+        <v>3.872641222639305</v>
       </c>
       <c r="B51" t="n">
-        <v>0.03085485606705607</v>
+        <v>0.03084338418844101</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3.842509373801617</v>
+        <v>3.841797838450864</v>
       </c>
       <c r="B52" t="n">
-        <v>0.02405109924072146</v>
+        <v>0.02404222062347294</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3.818458274560896</v>
+        <v>3.817755617827391</v>
       </c>
       <c r="B53" t="n">
-        <v>0.02375188996740363</v>
+        <v>0.02374317650179369</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3.794706384593492</v>
+        <v>3.794012441325598</v>
       </c>
       <c r="B54" t="n">
-        <v>0.02208527685384709</v>
+        <v>0.02207864630756795</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3.772621107739645</v>
+        <v>3.77193379501803</v>
       </c>
       <c r="B55" t="n">
-        <v>0.06408119328082673</v>
+        <v>0.0640566696165128</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3.708539914458818</v>
+        <v>3.707877125401517</v>
       </c>
       <c r="B56" t="n">
-        <v>0.02371751368647956</v>
+        <v>0.02370906397022532</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>3.684822400772339</v>
+        <v>3.684168061431292</v>
       </c>
       <c r="B57" t="n">
-        <v>0.02018240217956047</v>
+        <v>0.02017391209714958</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3.664639998592778</v>
+        <v>3.663994149334142</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0295426979433322</v>
+        <v>0.0295336486508635</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3.635097300649446</v>
+        <v>3.634460500683279</v>
       </c>
       <c r="B59" t="n">
-        <v>0.02153197642229721</v>
+        <v>0.0215244554319769</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3.613565324227149</v>
+        <v>3.612936045251302</v>
       </c>
       <c r="B60" t="n">
-        <v>0.03676516541722208</v>
+        <v>0.0367524268186501</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3.576800158809927</v>
+        <v>3.576183618432652</v>
       </c>
       <c r="B61" t="n">
-        <v>0.02023928204653958</v>
+        <v>0.02023232500870797</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3.556560876763387</v>
+        <v>3.555951293423944</v>
       </c>
       <c r="B62" t="n">
-        <v>0.03202996539370906</v>
+        <v>0.03201903608808587</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>3.524530911369678</v>
+        <v>3.523932257335858</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0243840802101114</v>
+        <v>0.02437705080260821</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3.500146831159567</v>
+        <v>3.49955520653325</v>
       </c>
       <c r="B64" t="n">
-        <v>0.01879936866151199</v>
+        <v>0.01879181943024388</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3.481347462498055</v>
+        <v>3.480763387103006</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01802045897204163</v>
+        <v>0.01801442843818624</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3.463327003526013</v>
+        <v>3.462748958664819</v>
       </c>
       <c r="B66" t="n">
-        <v>0.01840578198450782</v>
+        <v>0.018400841156061</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>3.444921221541505</v>
+        <v>3.444348117508758</v>
       </c>
       <c r="B67" t="n">
-        <v>0.02217081568887602</v>
+        <v>0.02216229213400345</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>3.422750405852629</v>
+        <v>3.422185825374755</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0280096061942765</v>
+        <v>0.028000404419394</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>3.394740799658353</v>
+        <v>3.394185420955361</v>
       </c>
       <c r="B69" t="n">
-        <v>0.02372399311696238</v>
+        <v>0.02371625838887015</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>3.371016806541391</v>
+        <v>3.370469162566491</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02014950155684136</v>
+        <v>0.02014297480885086</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>3.350867304984549</v>
+        <v>3.35032618775764</v>
       </c>
       <c r="B71" t="n">
-        <v>0.02738256476473389</v>
+        <v>0.02737375781544582</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>3.323484740219815</v>
+        <v>3.322952429942194</v>
       </c>
       <c r="B72" t="n">
-        <v>0.01589985270746963</v>
+        <v>0.01589477205334022</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>3.307584887512346</v>
+        <v>3.307057657888854</v>
       </c>
       <c r="B73" t="n">
-        <v>0.01940051769945672</v>
+        <v>0.01939435143326396</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>3.288184369812889</v>
+        <v>3.28766330645559</v>
       </c>
       <c r="B74" t="n">
-        <v>0.01968926340376242</v>
+        <v>0.01968411041115203</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>3.268495106409127</v>
+        <v>3.267979196044438</v>
       </c>
       <c r="B75" t="n">
-        <v>0.01639913055268716</v>
+        <v>0.01639290967463269</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>3.252095975856439</v>
+        <v>3.251586286369805</v>
       </c>
       <c r="B76" t="n">
-        <v>0.01573062127701474</v>
+        <v>0.01572570277587726</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>3.236365354579425</v>
+        <v>3.235860583593928</v>
       </c>
       <c r="B77" t="n">
-        <v>0.01657886506111739</v>
+        <v>0.0165737071456511</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>3.219786489518307</v>
+        <v>3.219286876448277</v>
       </c>
       <c r="B78" t="n">
-        <v>0.01986840742120899</v>
+        <v>0.01986226097112409</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>3.199918082097098</v>
+        <v>3.199424615477153</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0220623974217351</v>
+        <v>0.02205561681228296</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3.177855684675363</v>
+        <v>3.17736899866487</v>
       </c>
       <c r="B80" t="n">
-        <v>0.01791263948880983</v>
+        <v>0.01790716875512954</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>3.159943045186553</v>
+        <v>3.15946182990974</v>
       </c>
       <c r="B81" t="n">
-        <v>0.02246470555264057</v>
+        <v>0.02245887234335164</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>3.137478339633913</v>
+        <v>3.137002957566389</v>
       </c>
       <c r="B82" t="n">
-        <v>0.01464383018905613</v>
+        <v>0.01463842837680795</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>3.122834509444857</v>
+        <v>3.122364529189581</v>
       </c>
       <c r="B83" t="n">
-        <v>0.01683449391485636</v>
+        <v>0.01682944083555471</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>3.10600001553</v>
+        <v>3.105535088354026</v>
       </c>
       <c r="B84" t="n">
-        <v>0.02491510391092122</v>
+        <v>0.02490767545260475</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>3.081084911619079</v>
+        <v>3.080627412901421</v>
       </c>
       <c r="B85" t="n">
-        <v>0.02451763229406678</v>
+        <v>0.02451038073334466</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>3.056567279325012</v>
+        <v>3.056117032168077</v>
       </c>
       <c r="B86" t="n">
-        <v>0.01568381753462544</v>
+        <v>0.01567920912155785</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>3.040883461790387</v>
+        <v>3.040437823046519</v>
       </c>
       <c r="B87" t="n">
-        <v>0.01772790411190428</v>
+        <v>0.01772363729770943</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>3.023155557678483</v>
+        <v>3.022714185748809</v>
       </c>
       <c r="B88" t="n">
-        <v>0.01708780992965142</v>
+        <v>0.01708193146751169</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>3.006067747748831</v>
+        <v>3.005632254281298</v>
       </c>
       <c r="B89" t="n">
-        <v>0.02291391575349211</v>
+        <v>0.02290730238519423</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.983153831995339</v>
+        <v>2.982724951896103</v>
       </c>
       <c r="B90" t="n">
-        <v>0.01663984191536194</v>
+        <v>0.01663507106766282</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.966513990079977</v>
+        <v>2.966089880828441</v>
       </c>
       <c r="B91" t="n">
-        <v>0.01813219468646965</v>
+        <v>0.01812702633959207</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.948381795393507</v>
+        <v>2.947962854488849</v>
       </c>
       <c r="B92" t="n">
-        <v>0.01915313160217158</v>
+        <v>0.01914770665690391</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.929228663791336</v>
+        <v>2.928815147831945</v>
       </c>
       <c r="B93" t="n">
-        <v>0.02216994731008626</v>
+        <v>0.02216371201880163</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.90705871648125</v>
+        <v>2.906651435813143</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0166087919364446</v>
+        <v>0.01660415174952812</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.890449924544805</v>
+        <v>2.890047284063615</v>
       </c>
       <c r="B95" t="n">
-        <v>0.01243322341388797</v>
+        <v>0.01242976720005684</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.878016701130917</v>
+        <v>2.877617516863558</v>
       </c>
       <c r="B96" t="n">
-        <v>0.02297678481784704</v>
+        <v>0.02297043688205624</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.85503991631307</v>
+        <v>2.854647079981502</v>
       </c>
       <c r="B97" t="n">
-        <v>0.01873900861169053</v>
+        <v>0.01873386913504138</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.836300907701379</v>
+        <v>2.83591321084646</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0200254263928592</v>
+        <v>0.0200199714963798</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2.81627548130852</v>
+        <v>2.815893239350081</v>
       </c>
       <c r="B99" t="n">
-        <v>0.01218363832756886</v>
+        <v>0.01218033842964994</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2.804091842980951</v>
+        <v>2.803712900920431</v>
       </c>
       <c r="B100" t="n">
-        <v>0.02405373977870884</v>
+        <v>0.02404726689954684</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2.780038103202243</v>
+        <v>2.779665634020884</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0115026197135113</v>
+        <v>0.01149954405548614</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2.768535483488731</v>
+        <v>2.768166089965398</v>
       </c>
       <c r="B102" t="n">
-        <v>0.02635276088519323</v>
+        <v>0.02634651430584611</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2.742182722603538</v>
+        <v>2.741819575659552</v>
       </c>
       <c r="B103" t="n">
-        <v>0.01979569009524207</v>
+        <v>0.01978972533580681</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2.722387032508296</v>
+        <v>2.722029850323745</v>
       </c>
       <c r="B104" t="n">
-        <v>0.01103217662087363</v>
+        <v>0.011029287791128</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2.711354855887422</v>
+        <v>2.711000562532617</v>
       </c>
       <c r="B105" t="n">
-        <v>0.01515509552565719</v>
+        <v>0.01515114621097391</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2.696199760361765</v>
+        <v>2.695849416321643</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0181022594016671</v>
+        <v>0.01809757108284638</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2.678097500960098</v>
+        <v>2.677751845238797</v>
       </c>
       <c r="B107" t="n">
-        <v>0.01512845557857823</v>
+        <v>0.01512456166978948</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2.66296904538152</v>
+        <v>2.662627283569007</v>
       </c>
       <c r="B108" t="n">
-        <v>0.01630971172564699</v>
+        <v>0.01630623878028814</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2.646659333655873</v>
+        <v>2.646321044788719</v>
       </c>
       <c r="B109" t="n">
-        <v>0.01277157572912158</v>
+        <v>0.01276762539612664</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2.633887757926751</v>
+        <v>2.633553419392592</v>
       </c>
       <c r="B110" t="n">
-        <v>0.01430374786754873</v>
+        <v>0.01430012659831537</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2.619584010059202</v>
+        <v>2.619253292794277</v>
       </c>
       <c r="B111" t="n">
-        <v>0.01349467383797442</v>
+        <v>0.01349127547586138</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2.606089336221228</v>
+        <v>2.605762017318416</v>
       </c>
       <c r="B112" t="n">
-        <v>0.02207729059067631</v>
+        <v>0.02207176870798877</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2.584012045630552</v>
+        <v>2.583690248610427</v>
       </c>
       <c r="B113" t="n">
-        <v>0.02043928656486127</v>
+        <v>0.02043421624368014</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2.56357275906569</v>
+        <v>2.563256032366747</v>
       </c>
       <c r="B114" t="n">
-        <v>0.01699586772303352</v>
+        <v>0.01699233060348426</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2.546576891342657</v>
+        <v>2.546263701763262</v>
       </c>
       <c r="B115" t="n">
-        <v>0.01430177889698081</v>
+        <v>0.01429763010862262</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2.532275112445676</v>
+        <v>2.53196607165464</v>
       </c>
       <c r="B116" t="n">
-        <v>0.01597451718960752</v>
+        <v>0.01597063063837911</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2.516300595256069</v>
+        <v>2.515995441016261</v>
       </c>
       <c r="B117" t="n">
-        <v>0.01154657212015664</v>
+        <v>0.01154377818557917</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2.504754023135912</v>
+        <v>2.504451662830681</v>
       </c>
       <c r="B118" t="inlineStr"/>
     </row>
